--- a/Unity/Assets/Config/Excel/AbilityConfig/MailConfig/MailCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/MailConfig/MailCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\MailConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74869EFE-73CE-4244-AE68-A40FE4E3F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB261B-EE3D-48BA-BFC6-74AC2EFAF4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -266,6 +266,19 @@
   <si>
     <t>DropItemRule_Mail_Questionnaire1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Thanksgiving</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_Mail_Thanksgiving_Title</t>
+  </si>
+  <si>
+    <t>Text_Key_Mail_Thanksgiving_Content</t>
+  </si>
+  <si>
+    <t>DropItemRule_Mail_Thanksgiving</t>
   </si>
 </sst>
 </file>
@@ -691,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1291,6 +1304,27 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E1:F1"/>
